--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-27/Sample-27.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-27/Sample-27.xlsx
@@ -7,29 +7,165 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$3:$D$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$2:$D$29</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Row 1</t>
+  </si>
+  <si>
+    <t>Row 2</t>
+  </si>
+  <si>
+    <t>Row 3</t>
+  </si>
+  <si>
+    <t>Row 4</t>
+  </si>
+  <si>
+    <t>Row 5</t>
+  </si>
+  <si>
+    <t>Row 6</t>
+  </si>
+  <si>
+    <t>Row 7</t>
+  </si>
+  <si>
+    <t>Row 8</t>
+  </si>
+  <si>
+    <t>Row 9</t>
+  </si>
+  <si>
+    <t>Row 10</t>
+  </si>
+  <si>
+    <t>Row 11</t>
+  </si>
+  <si>
+    <t>Row 12</t>
+  </si>
+  <si>
+    <t>Row 13</t>
+  </si>
+  <si>
+    <t>Row 14</t>
+  </si>
+  <si>
+    <t>Row 15</t>
+  </si>
+  <si>
+    <t>Row 16</t>
+  </si>
+  <si>
+    <t>Row 17</t>
+  </si>
+  <si>
+    <t>Row 18</t>
+  </si>
+  <si>
+    <t>Row 19</t>
+  </si>
+  <si>
+    <t>Row 20</t>
+  </si>
+  <si>
+    <t>Row 21</t>
+  </si>
+  <si>
+    <t>Row 22</t>
+  </si>
+  <si>
+    <t>Row 23</t>
+  </si>
+  <si>
+    <t>Row 24</t>
+  </si>
+  <si>
+    <t>Row 25</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="##0;[Black]\-##0"/>
+    <numFmt numFmtId="165" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;[Black]\-#,##0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -41,14 +177,89 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="10" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="11" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="12" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="13" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="14" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="4" applyFill="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="HeaderStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle_Alternate" xfId="2"/>
+    <cellStyle name="NumberValueStyle" xfId="3"/>
+    <cellStyle name="NumberValueStyle_Alternate" xfId="4"/>
+    <cellStyle name="NumberValueAggregateStyle" xfId="5"/>
+    <cellStyle name="NumberValueAggregateStyle_Alternate" xfId="6"/>
+    <cellStyle name="StringValueStyle" xfId="7"/>
+    <cellStyle name="StringValueStyle_Alternate" xfId="8"/>
+    <cellStyle name="DateValueStyle" xfId="9"/>
+    <cellStyle name="DateValueStyle_Alternate" xfId="10"/>
+    <cellStyle name="DecimalValueStyle" xfId="11"/>
+    <cellStyle name="DecimalValueStyle_Alternate" xfId="12"/>
+    <cellStyle name="DecimalValueAggregateStyle" xfId="13"/>
+    <cellStyle name="DecimalValueAggregateStyle_Alternate" xfId="14"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -56,11 +267,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="12.829548835754395" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.009329795837402" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="15">
+        <f>SUBTOTAL(103,A4:A28)</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="19">
+        <v>45174</v>
+      </c>
+      <c r="D4" s="20">
+        <v>9172.9169921875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23">
+        <v>45175</v>
+      </c>
+      <c r="D5" s="24">
+        <v>960.483154296875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="19">
+        <v>45176</v>
+      </c>
+      <c r="D6" s="20">
+        <v>146.8257293701172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="23">
+        <v>45177</v>
+      </c>
+      <c r="D7" s="24">
+        <v>8631.08203125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <v>45178</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1973.73486328125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="23">
+        <v>45179</v>
+      </c>
+      <c r="D9" s="24">
+        <v>5350.943359375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="19">
+        <v>45180</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2930.330810546875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="23">
+        <v>45181</v>
+      </c>
+      <c r="D11" s="24">
+        <v>6578.36474609375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="19">
+        <v>45182</v>
+      </c>
+      <c r="D12" s="20">
+        <v>7573.21923828125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="21">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="23">
+        <v>45183</v>
+      </c>
+      <c r="D13" s="24">
+        <v>4114.40234375</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="19">
+        <v>45184</v>
+      </c>
+      <c r="D14" s="20">
+        <v>72.46485900878906</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="23">
+        <v>45185</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1225.0596923828125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="19">
+        <v>45186</v>
+      </c>
+      <c r="D16" s="20">
+        <v>9155.1484375</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="21">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="23">
+        <v>45187</v>
+      </c>
+      <c r="D17" s="24">
+        <v>8814.013671875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="19">
+        <v>45188</v>
+      </c>
+      <c r="D18" s="20">
+        <v>267.486328125</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="21">
+        <v>16</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23">
+        <v>45189</v>
+      </c>
+      <c r="D19" s="24">
+        <v>5539.97509765625</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="19">
+        <v>45190</v>
+      </c>
+      <c r="D20" s="20">
+        <v>6836.04638671875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="23">
+        <v>45191</v>
+      </c>
+      <c r="D21" s="24">
+        <v>4455.07421875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="19">
+        <v>45192</v>
+      </c>
+      <c r="D22" s="20">
+        <v>378.2886962890625</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="23">
+        <v>45193</v>
+      </c>
+      <c r="D23" s="24">
+        <v>851.8644409179688</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="19">
+        <v>45194</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4341.7587890625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21">
+        <v>22</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="23">
+        <v>45195</v>
+      </c>
+      <c r="D25" s="24">
+        <v>5098.9658203125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="19">
+        <v>45196</v>
+      </c>
+      <c r="D26" s="20">
+        <v>7285.19287109375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="23">
+        <v>45197</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3890.19189453125</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19">
+        <v>45198</v>
+      </c>
+      <c r="D28" s="20">
+        <v>3701.52490234375</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="25">
+        <f>SUBTOTAL(109,D4:D28)</f>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:D3"/>
   <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
